--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43055,6 +43055,41 @@
         <v>1422600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1509600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43090,6 +43090,41 @@
         <v>1509600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>2902900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43125,6 +43125,41 @@
         <v>2902900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>740800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43160,6 +43160,41 @@
         <v>740800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>728800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43195,6 +43195,41 @@
         <v>728800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>2309600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43230,6 +43230,41 @@
         <v>2309600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2798000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43265,6 +43265,41 @@
         <v>2798000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>718100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43300,6 +43300,41 @@
         <v>718100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1565400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43335,6 +43335,41 @@
         <v>1565400</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>3002000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43370,6 +43370,41 @@
         <v>3002000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1362100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43405,6 +43405,41 @@
         <v>1362100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>847900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43440,6 +43440,41 @@
         <v>847900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1541100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43475,6 +43475,76 @@
         <v>1541100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1357300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>2358700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43545,6 +43545,76 @@
         <v>2358700</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>833700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>999100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43615,6 +43615,41 @@
         <v>999100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>748500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43650,6 +43650,41 @@
         <v>748500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1592700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43685,6 +43685,41 @@
         <v>1592700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>903000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43720,6 +43720,41 @@
         <v>903000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>3882300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43755,6 +43755,76 @@
         <v>3882300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1744600</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2317800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43825,6 +43825,41 @@
         <v>2317800</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>3285400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43860,6 +43860,41 @@
         <v>3285400</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>3366700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1859"/>
+  <dimension ref="A1:I1860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65525,6 +65525,41 @@
         <v>3366700</v>
       </c>
     </row>
+    <row r="1860">
+      <c r="A1860" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1860" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1860" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1860" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F1860" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G1860" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H1860" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1860" t="n">
+        <v>2934100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1860"/>
+  <dimension ref="A1:I1861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65560,6 +65560,41 @@
         <v>2934100</v>
       </c>
     </row>
+    <row r="1861">
+      <c r="A1861" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1861" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1861" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1861" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1861" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1861" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1861" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1861" t="n">
+        <v>2623800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1861"/>
+  <dimension ref="A1:I1862"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65595,6 +65595,41 @@
         <v>2623800</v>
       </c>
     </row>
+    <row r="1862">
+      <c r="A1862" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1862" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1862" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1862" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1862" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1862" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1862" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1862" t="n">
+        <v>6633400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1862"/>
+  <dimension ref="A1:I1863"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65630,6 +65630,41 @@
         <v>6633400</v>
       </c>
     </row>
+    <row r="1863">
+      <c r="A1863" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1863" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1863" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1863" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1863" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1863" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1863" t="n">
+        <v>3098100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1863"/>
+  <dimension ref="A1:I1864"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65665,6 +65665,41 @@
         <v>3098100</v>
       </c>
     </row>
+    <row r="1864">
+      <c r="A1864" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1864" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1864" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1864" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1864" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1864" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1864" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I1864" t="n">
+        <v>6048600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1864"/>
+  <dimension ref="A1:I1865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65700,6 +65700,41 @@
         <v>6048600</v>
       </c>
     </row>
+    <row r="1865">
+      <c r="A1865" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1865" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1865" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1865" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1865" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G1865" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1865" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1865" t="n">
+        <v>3777100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1865"/>
+  <dimension ref="A1:I1866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65735,6 +65735,41 @@
         <v>3777100</v>
       </c>
     </row>
+    <row r="1866">
+      <c r="A1866" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1866" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1866" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1866" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1866" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G1866" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1866" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1866" t="n">
+        <v>3670300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1866"/>
+  <dimension ref="A1:I1867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65770,6 +65770,41 @@
         <v>3670300</v>
       </c>
     </row>
+    <row r="1867">
+      <c r="A1867" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1867" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1867" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1867" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F1867" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1867" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1867" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1867" t="n">
+        <v>4364700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1867"/>
+  <dimension ref="A1:I1868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65805,6 +65805,41 @@
         <v>4364700</v>
       </c>
     </row>
+    <row r="1868">
+      <c r="A1868" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1868" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F1868" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1868" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1868" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I1868" t="n">
+        <v>2838000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1868"/>
+  <dimension ref="A1:I1869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65840,6 +65840,41 @@
         <v>2838000</v>
       </c>
     </row>
+    <row r="1869">
+      <c r="A1869" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1869" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F1869" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G1869" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1869" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1869" t="n">
+        <v>7091800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1869"/>
+  <dimension ref="A1:I1870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65875,6 +65875,41 @@
         <v>7091800</v>
       </c>
     </row>
+    <row r="1870">
+      <c r="A1870" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1870" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1870" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1870" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1870" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1870" t="n">
+        <v>5059300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1870"/>
+  <dimension ref="A1:I1871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65910,6 +65910,41 @@
         <v>5059300</v>
       </c>
     </row>
+    <row r="1871">
+      <c r="A1871" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1871" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F1871" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1871" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H1871" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1871" t="n">
+        <v>7644800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1871"/>
+  <dimension ref="A1:I1872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65945,6 +65945,41 @@
         <v>7644800</v>
       </c>
     </row>
+    <row r="1872">
+      <c r="A1872" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1872" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1872" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1872" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1872" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I1872" t="n">
+        <v>10874700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1872"/>
+  <dimension ref="A1:I1873"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65980,6 +65980,41 @@
         <v>10874700</v>
       </c>
     </row>
+    <row r="1873">
+      <c r="A1873" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1873" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1873" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1873" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1873" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1873" t="n">
+        <v>6610400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1873"/>
+  <dimension ref="A1:I1874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66015,6 +66015,41 @@
         <v>6610400</v>
       </c>
     </row>
+    <row r="1874">
+      <c r="A1874" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E1874" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F1874" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1874" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1874" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I1874" t="n">
+        <v>3204100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2443"/>
+  <dimension ref="A1:I2444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85965,6 +85965,41 @@
         <v>3204100</v>
       </c>
     </row>
+    <row r="2444">
+      <c r="A2444" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2444" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2444" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F2444" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2444" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H2444" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I2444" t="n">
+        <v>7102900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2444"/>
+  <dimension ref="A1:I2445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86000,6 +86000,41 @@
         <v>7102900</v>
       </c>
     </row>
+    <row r="2445">
+      <c r="A2445" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2445" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2445" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F2445" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G2445" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H2445" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I2445" t="n">
+        <v>11614500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2445"/>
+  <dimension ref="A1:I2446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86035,6 +86035,41 @@
         <v>11614500</v>
       </c>
     </row>
+    <row r="2446">
+      <c r="A2446" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2446" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2446" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2446" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2446" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G2446" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H2446" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I2446" t="n">
+        <v>12620800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2446"/>
+  <dimension ref="A1:I2447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86070,6 +86070,41 @@
         <v>12620800</v>
       </c>
     </row>
+    <row r="2447">
+      <c r="A2447" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2447" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2447" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2447" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G2447" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H2447" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I2447" t="n">
+        <v>6387200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2447"/>
+  <dimension ref="A1:I2448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86105,6 +86105,41 @@
         <v>6387200</v>
       </c>
     </row>
+    <row r="2448">
+      <c r="A2448" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2448" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2448" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2448" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2448" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2448" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H2448" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I2448" t="n">
+        <v>5734100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2448"/>
+  <dimension ref="A1:I2449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86140,6 +86140,41 @@
         <v>5734100</v>
       </c>
     </row>
+    <row r="2449">
+      <c r="A2449" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2449" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2449" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2449" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F2449" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G2449" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2449" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2449" t="n">
+        <v>4012200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2449"/>
+  <dimension ref="A1:I2450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86175,6 +86175,41 @@
         <v>4012200</v>
       </c>
     </row>
+    <row r="2450">
+      <c r="A2450" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2450" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2450" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2450" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2450" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2450" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H2450" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I2450" t="n">
+        <v>5216000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2450"/>
+  <dimension ref="A1:I2451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86210,6 +86210,41 @@
         <v>5216000</v>
       </c>
     </row>
+    <row r="2451">
+      <c r="A2451" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2451" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2451" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2451" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F2451" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G2451" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H2451" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I2451" t="n">
+        <v>6874000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2451"/>
+  <dimension ref="A1:I2452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86245,6 +86245,41 @@
         <v>6874000</v>
       </c>
     </row>
+    <row r="2452">
+      <c r="A2452" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2452" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2452" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2452" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F2452" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2452" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H2452" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I2452" t="n">
+        <v>3928800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2452"/>
+  <dimension ref="A1:I2453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86280,6 +86280,41 @@
         <v>3928800</v>
       </c>
     </row>
+    <row r="2453">
+      <c r="A2453" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2453" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2453" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2453" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F2453" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G2453" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H2453" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2453" t="n">
+        <v>11494600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2453"/>
+  <dimension ref="A1:I2455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86315,6 +86315,76 @@
         <v>11494600</v>
       </c>
     </row>
+    <row r="2454">
+      <c r="A2454" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2454" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2454" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2454" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F2454" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G2454" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2454" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I2454" t="n">
+        <v>15633200</v>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2455" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2455" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2455" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2455" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G2455" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H2455" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I2455" t="n">
+        <v>6743800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2455"/>
+  <dimension ref="A1:I2456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86385,6 +86385,41 @@
         <v>6743800</v>
       </c>
     </row>
+    <row r="2456">
+      <c r="A2456" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2456" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2456" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2456" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F2456" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2456" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H2456" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I2456" t="n">
+        <v>5638700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2456"/>
+  <dimension ref="A1:I2459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86420,6 +86420,111 @@
         <v>5638700</v>
       </c>
     </row>
+    <row r="2457">
+      <c r="A2457" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2457" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2457" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2457" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F2457" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G2457" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H2457" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2457" t="n">
+        <v>4608000</v>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2458" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2458" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2458" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F2458" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2458" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H2458" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I2458" t="n">
+        <v>2048800</v>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2459" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2459" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2459" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2459" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G2459" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2459" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2459" t="n">
+        <v>4753600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2459"/>
+  <dimension ref="A1:I2460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86525,6 +86525,41 @@
         <v>4753600</v>
       </c>
     </row>
+    <row r="2460">
+      <c r="A2460" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2460" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2460" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2460" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F2460" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G2460" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H2460" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I2460" t="n">
+        <v>4497400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2460"/>
+  <dimension ref="A1:I2461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86560,6 +86560,41 @@
         <v>4497400</v>
       </c>
     </row>
+    <row r="2461">
+      <c r="A2461" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2461" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2461" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2461" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2461" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G2461" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2461" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I2461" t="n">
+        <v>27541900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0127.xlsx
+++ b/data/0127.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2461"/>
+  <dimension ref="A1:I2464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86595,6 +86595,111 @@
         <v>27541900</v>
       </c>
     </row>
+    <row r="2462">
+      <c r="A2462" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2462" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2462" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2462" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F2462" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G2462" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2462" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I2462" t="n">
+        <v>71531400</v>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2463" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2463" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2463" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F2463" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G2463" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H2463" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I2463" t="n">
+        <v>12696100</v>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2464" t="inlineStr">
+        <is>
+          <t>0127</t>
+        </is>
+      </c>
+      <c r="D2464" t="inlineStr">
+        <is>
+          <t>JHM</t>
+        </is>
+      </c>
+      <c r="E2464" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F2464" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G2464" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H2464" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I2464" t="n">
+        <v>25177100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
